--- a/CDI.PA.xlsx
+++ b/CDI.PA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02BDE36-5D26-4CEC-B242-FFF2BA721D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BA928-20AF-4216-A38D-3E113B9ABE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{8619D227-85A5-4A2B-AB16-FF2F89A379E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{8619D227-85A5-4A2B-AB16-FF2F89A379E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F9E7F-0C9F-4005-AC9D-08B0B1290A7B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>626.5</v>
+        <v>471.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
       </c>
       <c r="I4" s="7">
         <f>I2*I3</f>
-        <v>113027.22837000001</v>
+        <v>85081.629528000005</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>126224.22837000003</v>
+        <v>98278.629528000005</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
